--- a/5.xlsx
+++ b/5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programowanie\matura\matura2015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABD5B33-C633-4827-B5FB-699ED4CF39AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57197B66-B037-441D-A304-E9C844D456E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kraina" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="65">
   <si>
     <t>w01D</t>
   </si>
@@ -243,6 +243,9 @@
   <si>
     <t>Region</t>
   </si>
+  <si>
+    <t>Tempo wzrostu</t>
+  </si>
 </sst>
 </file>
 
@@ -277,9 +280,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1520,7 +1522,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1537,7 +1539,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1554,7 +1556,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
@@ -1571,7 +1573,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1588,7 +1590,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
@@ -1605,7 +1607,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
@@ -1622,7 +1624,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
@@ -1639,7 +1641,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
@@ -1656,7 +1658,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
@@ -1673,7 +1675,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
@@ -1690,7 +1692,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
@@ -1707,7 +1709,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
@@ -1724,7 +1726,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
@@ -1741,7 +1743,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -1758,7 +1760,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
@@ -1775,7 +1777,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
@@ -1792,7 +1794,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
@@ -1809,7 +1811,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
@@ -1826,7 +1828,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
@@ -1843,7 +1845,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
@@ -1860,7 +1862,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
@@ -1877,7 +1879,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
@@ -1894,7 +1896,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
@@ -1911,7 +1913,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
@@ -1928,7 +1930,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
@@ -1945,7 +1947,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
@@ -1962,7 +1964,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
@@ -1979,7 +1981,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
@@ -1996,7 +1998,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
@@ -2013,7 +2015,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
@@ -2030,7 +2032,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
@@ -2047,7 +2049,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
@@ -2064,7 +2066,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
@@ -2081,7 +2083,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
@@ -2098,7 +2100,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
@@ -2115,7 +2117,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
@@ -2132,7 +2134,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
@@ -2149,7 +2151,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
@@ -2166,7 +2168,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
@@ -2183,7 +2185,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
@@ -2200,7 +2202,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
@@ -2217,7 +2219,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
@@ -2234,7 +2236,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
@@ -2251,7 +2253,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
@@ -2268,7 +2270,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
@@ -2285,7 +2287,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
@@ -2302,7 +2304,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
@@ -2319,7 +2321,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
@@ -2336,7 +2338,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
@@ -2353,7 +2355,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
@@ -6447,13 +6449,3947 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD36BE6D-4339-432B-BAB3-9CBF1C563866}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1">
+        <v>2013</v>
+      </c>
+      <c r="J1">
+        <v>2014</v>
+      </c>
+      <c r="K1">
+        <v>2015</v>
+      </c>
+      <c r="L1">
+        <v>2016</v>
+      </c>
+      <c r="M1">
+        <v>2017</v>
+      </c>
+      <c r="N1">
+        <v>2018</v>
+      </c>
+      <c r="O1">
+        <v>2019</v>
+      </c>
+      <c r="P1">
+        <v>2020</v>
+      </c>
+      <c r="Q1">
+        <v>2021</v>
+      </c>
+      <c r="R1">
+        <v>2022</v>
+      </c>
+      <c r="S1">
+        <v>2023</v>
+      </c>
+      <c r="T1">
+        <v>2024</v>
+      </c>
+      <c r="U1">
+        <v>2025</v>
+      </c>
+      <c r="W1">
+        <f>SUM(U:U)</f>
+        <v>125932230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1415007</v>
+      </c>
+      <c r="C2">
+        <v>1397195</v>
+      </c>
+      <c r="D2">
+        <v>1499070</v>
+      </c>
+      <c r="E2">
+        <v>1481105</v>
+      </c>
+      <c r="H2">
+        <f>ROUNDDOWN(J2/I2,4)</f>
+        <v>1.0597000000000001</v>
+      </c>
+      <c r="I2">
+        <f>B2+C2</f>
+        <v>2812202</v>
+      </c>
+      <c r="J2">
+        <f>D2+E2</f>
+        <v>2980175</v>
+      </c>
+      <c r="K2">
+        <f>IF(J2&gt;2*$I2,J2,ROUNDDOWN(J2*$H2,0))</f>
+        <v>3158091</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:U2" si="0">IF(K2&gt;2*$I2,K2,ROUNDDOWN(K2*$H2,0))</f>
+        <v>3346629</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>3546422</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>3758143</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>3982504</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>4220259</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>4472208</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>4739198</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>5022128</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>5321949</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>5639669</v>
+      </c>
+      <c r="V2">
+        <f>IF(U2&gt;2*I2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f>MAX(U:U)</f>
+        <v>16699503</v>
+      </c>
+      <c r="X2">
+        <f>SUM(V:V)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1711390</v>
+      </c>
+      <c r="C3">
+        <v>1641773</v>
+      </c>
+      <c r="D3">
+        <v>1522030</v>
+      </c>
+      <c r="E3">
+        <v>1618733</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H51" si="1">ROUNDDOWN(J3/I3,4)</f>
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I51" si="2">B3+C3</f>
+        <v>3353163</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J51" si="3">D3+E3</f>
+        <v>3140763</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:U3" si="4">IF(J3&gt;2*$I3,J3,ROUNDDOWN(J3*$H3,0))</f>
+        <v>2941638</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="4"/>
+        <v>2755138</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="4"/>
+        <v>2580462</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="4"/>
+        <v>2416860</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="4"/>
+        <v>2263631</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="4"/>
+        <v>2120116</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="4"/>
+        <v>1985700</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="4"/>
+        <v>1859806</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="4"/>
+        <v>1741894</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="4"/>
+        <v>1631457</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="4"/>
+        <v>1528022</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V51" si="5">IF(U3&gt;2*I3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1165105</v>
+      </c>
+      <c r="C4">
+        <v>1278732</v>
+      </c>
+      <c r="D4">
+        <v>1299953</v>
+      </c>
+      <c r="E4">
+        <v>1191621</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1.0195000000000001</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2443837</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>2491574</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:U4" si="6">IF(J4&gt;2*$I4,J4,ROUNDDOWN(J4*$H4,0))</f>
+        <v>2540159</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>2589692</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>2640190</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="6"/>
+        <v>2691673</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="6"/>
+        <v>2744160</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="6"/>
+        <v>2797671</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="6"/>
+        <v>2852225</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="6"/>
+        <v>2907843</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="6"/>
+        <v>2964545</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="6"/>
+        <v>3022353</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="6"/>
+        <v>3081288</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>949065</v>
+      </c>
+      <c r="C5">
+        <v>1026050</v>
+      </c>
+      <c r="D5">
+        <v>688027</v>
+      </c>
+      <c r="E5">
+        <v>723233</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>0.71450000000000002</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>1975115</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>1411260</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:U5" si="7">IF(J5&gt;2*$I5,J5,ROUNDDOWN(J5*$H5,0))</f>
+        <v>1008345</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>720462</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="7"/>
+        <v>514770</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>367803</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>262795</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="7"/>
+        <v>187767</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="7"/>
+        <v>134159</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="7"/>
+        <v>95856</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>68489</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
+        <v>48935</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="7"/>
+        <v>34964</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2436107</v>
+      </c>
+      <c r="C6">
+        <v>2228622</v>
+      </c>
+      <c r="D6">
+        <v>1831600</v>
+      </c>
+      <c r="E6">
+        <v>1960624</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>4664729</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>3792224</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:U6" si="8">IF(J6&gt;2*$I6,J6,ROUNDDOWN(J6*$H6,0))</f>
+        <v>3082698</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="8"/>
+        <v>2505925</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>2037066</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="8"/>
+        <v>1655930</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="8"/>
+        <v>1346105</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>1094248</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="8"/>
+        <v>889514</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>723085</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="8"/>
+        <v>587795</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="8"/>
+        <v>477818</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="8"/>
+        <v>388418</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1846928</v>
+      </c>
+      <c r="C7">
+        <v>1851433</v>
+      </c>
+      <c r="D7">
+        <v>2125113</v>
+      </c>
+      <c r="E7">
+        <v>2028635</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.1231</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>3698361</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>4153748</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:U7" si="9">IF(J7&gt;2*$I7,J7,ROUNDDOWN(J7*$H7,0))</f>
+        <v>4665074</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="9"/>
+        <v>5239344</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="9"/>
+        <v>5884307</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="9"/>
+        <v>6608665</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="9"/>
+        <v>7422191</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="9"/>
+        <v>7422191</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="9"/>
+        <v>7422191</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="9"/>
+        <v>7422191</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="9"/>
+        <v>7422191</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="9"/>
+        <v>7422191</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="9"/>
+        <v>7422191</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3841577</v>
+      </c>
+      <c r="C8">
+        <v>3848394</v>
+      </c>
+      <c r="D8">
+        <v>3595975</v>
+      </c>
+      <c r="E8">
+        <v>3123039</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>7689971</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>6719014</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:U8" si="10">IF(J8&gt;2*$I8,J8,ROUNDDOWN(J8*$H8,0))</f>
+        <v>5870402</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="10"/>
+        <v>5128970</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="10"/>
+        <v>4481181</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="10"/>
+        <v>3915207</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="10"/>
+        <v>3420716</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="10"/>
+        <v>2988679</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="10"/>
+        <v>2611208</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="10"/>
+        <v>2281412</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="10"/>
+        <v>1993269</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="10"/>
+        <v>1741519</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="10"/>
+        <v>1521565</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>679557</v>
+      </c>
+      <c r="C9">
+        <v>655500</v>
+      </c>
+      <c r="D9">
+        <v>1012012</v>
+      </c>
+      <c r="E9">
+        <v>1067022</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.5571999999999999</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>1335057</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>2079034</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:U9" si="11">IF(J9&gt;2*$I9,J9,ROUNDDOWN(J9*$H9,0))</f>
+        <v>3237471</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="11"/>
+        <v>3237471</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="11"/>
+        <v>3237471</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="11"/>
+        <v>3237471</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="11"/>
+        <v>3237471</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="11"/>
+        <v>3237471</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="11"/>
+        <v>3237471</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="11"/>
+        <v>3237471</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="11"/>
+        <v>3237471</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="11"/>
+        <v>3237471</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="11"/>
+        <v>3237471</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1660998</v>
+      </c>
+      <c r="C10">
+        <v>1630345</v>
+      </c>
+      <c r="D10">
+        <v>1130119</v>
+      </c>
+      <c r="E10">
+        <v>1080238</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.67149999999999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>3291343</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>2210357</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:U10" si="12">IF(J10&gt;2*$I10,J10,ROUNDDOWN(J10*$H10,0))</f>
+        <v>1484254</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="12"/>
+        <v>996676</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="12"/>
+        <v>669267</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="12"/>
+        <v>449412</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="12"/>
+        <v>301780</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="12"/>
+        <v>202645</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="12"/>
+        <v>136076</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="12"/>
+        <v>91375</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="12"/>
+        <v>61358</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="12"/>
+        <v>41201</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="12"/>
+        <v>27666</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1157622</v>
+      </c>
+      <c r="C11">
+        <v>1182345</v>
+      </c>
+      <c r="D11">
+        <v>830785</v>
+      </c>
+      <c r="E11">
+        <v>833779</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0.71130000000000004</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>2339967</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>1664564</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:U11" si="13">IF(J11&gt;2*$I11,J11,ROUNDDOWN(J11*$H11,0))</f>
+        <v>1184004</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="13"/>
+        <v>842182</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="13"/>
+        <v>599044</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="13"/>
+        <v>426099</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="13"/>
+        <v>303084</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="13"/>
+        <v>215583</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="13"/>
+        <v>153344</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="13"/>
+        <v>109073</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="13"/>
+        <v>77583</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="13"/>
+        <v>55184</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="13"/>
+        <v>39252</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1987047</v>
+      </c>
+      <c r="C12">
+        <v>1996208</v>
+      </c>
+      <c r="D12">
+        <v>2053892</v>
+      </c>
+      <c r="E12">
+        <v>1697247</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>3983255</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>3751139</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ref="K12:U12" si="14">IF(J12&gt;2*$I12,J12,ROUNDDOWN(J12*$H12,0))</f>
+        <v>3532447</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="14"/>
+        <v>3326505</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="14"/>
+        <v>3132569</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="14"/>
+        <v>2949940</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="14"/>
+        <v>2777958</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="14"/>
+        <v>2616003</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="14"/>
+        <v>2463490</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="14"/>
+        <v>2319868</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="14"/>
+        <v>2184619</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="14"/>
+        <v>2057255</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="14"/>
+        <v>1937317</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3997724</v>
+      </c>
+      <c r="C13">
+        <v>3690756</v>
+      </c>
+      <c r="D13">
+        <v>4339393</v>
+      </c>
+      <c r="E13">
+        <v>4639643</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1.1677999999999999</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>7688480</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>8979036</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:U13" si="15">IF(J13&gt;2*$I13,J13,ROUNDDOWN(J13*$H13,0))</f>
+        <v>10485718</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="15"/>
+        <v>12245221</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="15"/>
+        <v>14299969</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="15"/>
+        <v>16699503</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="15"/>
+        <v>16699503</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="15"/>
+        <v>16699503</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="15"/>
+        <v>16699503</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="15"/>
+        <v>16699503</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="15"/>
+        <v>16699503</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="15"/>
+        <v>16699503</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="15"/>
+        <v>16699503</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>996113</v>
+      </c>
+      <c r="C14">
+        <v>964279</v>
+      </c>
+      <c r="D14">
+        <v>1012487</v>
+      </c>
+      <c r="E14">
+        <v>1128940</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.0923</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>1960392</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>2141427</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:U14" si="16">IF(J14&gt;2*$I14,J14,ROUNDDOWN(J14*$H14,0))</f>
+        <v>2339080</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="16"/>
+        <v>2554977</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="16"/>
+        <v>2790801</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="16"/>
+        <v>3048391</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="16"/>
+        <v>3329757</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="16"/>
+        <v>3637093</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="16"/>
+        <v>3972796</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="16"/>
+        <v>3972796</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="16"/>
+        <v>3972796</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="16"/>
+        <v>3972796</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="16"/>
+        <v>3972796</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1143634</v>
+      </c>
+      <c r="C15">
+        <v>1033836</v>
+      </c>
+      <c r="D15">
+        <v>909534</v>
+      </c>
+      <c r="E15">
+        <v>856349</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0.81089999999999995</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>2177470</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>1765883</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ref="K15:U15" si="17">IF(J15&gt;2*$I15,J15,ROUNDDOWN(J15*$H15,0))</f>
+        <v>1431954</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="17"/>
+        <v>1161171</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="17"/>
+        <v>941593</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="17"/>
+        <v>763537</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="17"/>
+        <v>619152</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="17"/>
+        <v>502070</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="17"/>
+        <v>407128</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="17"/>
+        <v>330140</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="17"/>
+        <v>267710</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="17"/>
+        <v>217086</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="17"/>
+        <v>176035</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2549276</v>
+      </c>
+      <c r="C16">
+        <v>2584751</v>
+      </c>
+      <c r="D16">
+        <v>2033079</v>
+      </c>
+      <c r="E16">
+        <v>2066918</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>5134027</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>4099997</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:U16" si="18">IF(J16&gt;2*$I16,J16,ROUNDDOWN(J16*$H16,0))</f>
+        <v>3273847</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="18"/>
+        <v>2614166</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="18"/>
+        <v>2087411</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="18"/>
+        <v>1666797</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="18"/>
+        <v>1330937</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="18"/>
+        <v>1062753</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="18"/>
+        <v>848608</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="18"/>
+        <v>677613</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="18"/>
+        <v>541073</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="18"/>
+        <v>432046</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="18"/>
+        <v>344988</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1367212</v>
+      </c>
+      <c r="C17">
+        <v>1361389</v>
+      </c>
+      <c r="D17">
+        <v>1572320</v>
+      </c>
+      <c r="E17">
+        <v>1836258</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1.2492000000000001</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>2728601</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>3408578</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:U17" si="19">IF(J17&gt;2*$I17,J17,ROUNDDOWN(J17*$H17,0))</f>
+        <v>4257995</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="19"/>
+        <v>5319087</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="19"/>
+        <v>6644603</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="19"/>
+        <v>6644603</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="19"/>
+        <v>6644603</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="19"/>
+        <v>6644603</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="19"/>
+        <v>6644603</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="19"/>
+        <v>6644603</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="19"/>
+        <v>6644603</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="19"/>
+        <v>6644603</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="19"/>
+        <v>6644603</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2567464</v>
+      </c>
+      <c r="C18">
+        <v>2441857</v>
+      </c>
+      <c r="D18">
+        <v>1524132</v>
+      </c>
+      <c r="E18">
+        <v>1496810</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>5009321</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>3020942</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:U18" si="20">IF(J18&gt;2*$I18,J18,ROUNDDOWN(J18*$H18,0))</f>
+        <v>1821628</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="20"/>
+        <v>1098441</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="20"/>
+        <v>662359</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="20"/>
+        <v>399402</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="20"/>
+        <v>240839</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="20"/>
+        <v>145225</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="20"/>
+        <v>87570</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="20"/>
+        <v>52804</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="20"/>
+        <v>31840</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="20"/>
+        <v>19199</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="20"/>
+        <v>11576</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1334060</v>
+      </c>
+      <c r="C19">
+        <v>1395231</v>
+      </c>
+      <c r="D19">
+        <v>578655</v>
+      </c>
+      <c r="E19">
+        <v>677663</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>0.46029999999999999</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>2729291</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>1256318</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ref="K19:U19" si="21">IF(J19&gt;2*$I19,J19,ROUNDDOWN(J19*$H19,0))</f>
+        <v>578283</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="21"/>
+        <v>266183</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="21"/>
+        <v>122524</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="21"/>
+        <v>56397</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="21"/>
+        <v>25959</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="21"/>
+        <v>11948</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="21"/>
+        <v>5499</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="21"/>
+        <v>2531</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="21"/>
+        <v>1165</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="21"/>
+        <v>536</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="21"/>
+        <v>246</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2976209</v>
+      </c>
+      <c r="C20">
+        <v>3199665</v>
+      </c>
+      <c r="D20">
+        <v>1666477</v>
+      </c>
+      <c r="E20">
+        <v>1759240</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>0.55459999999999998</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>6175874</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>3425717</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:U20" si="22">IF(J20&gt;2*$I20,J20,ROUNDDOWN(J20*$H20,0))</f>
+        <v>1899902</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="22"/>
+        <v>1053685</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="22"/>
+        <v>584373</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="22"/>
+        <v>324093</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="22"/>
+        <v>179741</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="22"/>
+        <v>99684</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="22"/>
+        <v>55284</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="22"/>
+        <v>30660</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="22"/>
+        <v>17004</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="22"/>
+        <v>9430</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="22"/>
+        <v>5229</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1443351</v>
+      </c>
+      <c r="C21">
+        <v>1565539</v>
+      </c>
+      <c r="D21">
+        <v>1355276</v>
+      </c>
+      <c r="E21">
+        <v>1423414</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>0.9234</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>3008890</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>2778690</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ref="K21:U21" si="23">IF(J21&gt;2*$I21,J21,ROUNDDOWN(J21*$H21,0))</f>
+        <v>2565842</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="23"/>
+        <v>2369298</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="23"/>
+        <v>2187809</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="23"/>
+        <v>2020222</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="23"/>
+        <v>1865472</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="23"/>
+        <v>1722576</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="23"/>
+        <v>1590626</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="23"/>
+        <v>1468784</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="23"/>
+        <v>1356275</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="23"/>
+        <v>1252384</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="23"/>
+        <v>1156451</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2486640</v>
+      </c>
+      <c r="C22">
+        <v>2265936</v>
+      </c>
+      <c r="D22">
+        <v>297424</v>
+      </c>
+      <c r="E22">
+        <v>274759</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>0.1203</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>4752576</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>572183</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:U22" si="24">IF(J22&gt;2*$I22,J22,ROUNDDOWN(J22*$H22,0))</f>
+        <v>68833</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="24"/>
+        <v>8280</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="24"/>
+        <v>996</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="24"/>
+        <v>119</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>685438</v>
+      </c>
+      <c r="C23">
+        <v>749124</v>
+      </c>
+      <c r="D23">
+        <v>2697677</v>
+      </c>
+      <c r="E23">
+        <v>2821550</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>3.8473000000000002</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>1434562</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>5519227</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ref="K23:U23" si="25">IF(J23&gt;2*$I23,J23,ROUNDDOWN(J23*$H23,0))</f>
+        <v>5519227</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="25"/>
+        <v>5519227</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="25"/>
+        <v>5519227</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="25"/>
+        <v>5519227</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="25"/>
+        <v>5519227</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="25"/>
+        <v>5519227</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="25"/>
+        <v>5519227</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="25"/>
+        <v>5519227</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="25"/>
+        <v>5519227</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="25"/>
+        <v>5519227</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="25"/>
+        <v>5519227</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2166753</v>
+      </c>
+      <c r="C24">
+        <v>2338698</v>
+      </c>
+      <c r="D24">
+        <v>1681433</v>
+      </c>
+      <c r="E24">
+        <v>1592443</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>4505451</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>3273876</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:U24" si="26">IF(J24&gt;2*$I24,J24,ROUNDDOWN(J24*$H24,0))</f>
+        <v>2378798</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="26"/>
+        <v>1728434</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="26"/>
+        <v>1255880</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="26"/>
+        <v>912522</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="26"/>
+        <v>663038</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="26"/>
+        <v>481763</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="26"/>
+        <v>350048</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="26"/>
+        <v>254344</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="26"/>
+        <v>184806</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="26"/>
+        <v>134280</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="26"/>
+        <v>97567</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>643177</v>
+      </c>
+      <c r="C25">
+        <v>684187</v>
+      </c>
+      <c r="D25">
+        <v>796213</v>
+      </c>
+      <c r="E25">
+        <v>867904</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>1.2537</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>1327364</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>1664117</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:U25" si="27">IF(J25&gt;2*$I25,J25,ROUNDDOWN(J25*$H25,0))</f>
+        <v>2086303</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="27"/>
+        <v>2615598</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="27"/>
+        <v>3279175</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="27"/>
+        <v>3279175</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="27"/>
+        <v>3279175</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="27"/>
+        <v>3279175</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="27"/>
+        <v>3279175</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="27"/>
+        <v>3279175</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="27"/>
+        <v>3279175</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="27"/>
+        <v>3279175</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="27"/>
+        <v>3279175</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>450192</v>
+      </c>
+      <c r="C26">
+        <v>434755</v>
+      </c>
+      <c r="D26">
+        <v>1656446</v>
+      </c>
+      <c r="E26">
+        <v>1691000</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>3.7826</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>884947</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>3347446</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26:U26" si="28">IF(J26&gt;2*$I26,J26,ROUNDDOWN(J26*$H26,0))</f>
+        <v>3347446</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="28"/>
+        <v>3347446</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="28"/>
+        <v>3347446</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="28"/>
+        <v>3347446</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="28"/>
+        <v>3347446</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="28"/>
+        <v>3347446</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="28"/>
+        <v>3347446</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="28"/>
+        <v>3347446</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="28"/>
+        <v>3347446</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="28"/>
+        <v>3347446</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="28"/>
+        <v>3347446</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1037774</v>
+      </c>
+      <c r="C27">
+        <v>1113789</v>
+      </c>
+      <c r="D27">
+        <v>877464</v>
+      </c>
+      <c r="E27">
+        <v>990837</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>2151563</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>1868301</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:U27" si="29">IF(J27&gt;2*$I27,J27,ROUNDDOWN(J27*$H27,0))</f>
+        <v>1622245</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="29"/>
+        <v>1408595</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="29"/>
+        <v>1223083</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="29"/>
+        <v>1062002</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="29"/>
+        <v>922136</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="29"/>
+        <v>800690</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="29"/>
+        <v>695239</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="29"/>
+        <v>603676</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="29"/>
+        <v>524171</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="29"/>
+        <v>455137</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="29"/>
+        <v>395195</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2351213</v>
+      </c>
+      <c r="C28">
+        <v>2358482</v>
+      </c>
+      <c r="D28">
+        <v>1098384</v>
+      </c>
+      <c r="E28">
+        <v>1121488</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="1"/>
+        <v>0.4713</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>4709695</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>2219872</v>
+      </c>
+      <c r="K28">
+        <f t="shared" ref="K28:U28" si="30">IF(J28&gt;2*$I28,J28,ROUNDDOWN(J28*$H28,0))</f>
+        <v>1046225</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="30"/>
+        <v>493085</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="30"/>
+        <v>232390</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="30"/>
+        <v>109525</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="30"/>
+        <v>51619</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="30"/>
+        <v>24328</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="30"/>
+        <v>11465</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="30"/>
+        <v>5403</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="30"/>
+        <v>2546</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="30"/>
+        <v>1199</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="30"/>
+        <v>565</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2613354</v>
+      </c>
+      <c r="C29">
+        <v>2837241</v>
+      </c>
+      <c r="D29">
+        <v>431144</v>
+      </c>
+      <c r="E29">
+        <v>434113</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="1"/>
+        <v>0.15870000000000001</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>5450595</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>865257</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:U29" si="31">IF(J29&gt;2*$I29,J29,ROUNDDOWN(J29*$H29,0))</f>
+        <v>137316</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="31"/>
+        <v>21792</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="31"/>
+        <v>3458</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="31"/>
+        <v>548</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="31"/>
+        <v>86</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="31"/>
+        <v>13</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1859691</v>
+      </c>
+      <c r="C30">
+        <v>1844250</v>
+      </c>
+      <c r="D30">
+        <v>1460134</v>
+      </c>
+      <c r="E30">
+        <v>1585258</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="1"/>
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="2"/>
+        <v>3703941</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>3045392</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:U30" si="32">IF(J30&gt;2*$I30,J30,ROUNDDOWN(J30*$H30,0))</f>
+        <v>2503921</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="32"/>
+        <v>2058723</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="32"/>
+        <v>1692682</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="32"/>
+        <v>1391723</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="32"/>
+        <v>1144274</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="32"/>
+        <v>940822</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="32"/>
+        <v>773543</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="32"/>
+        <v>636007</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="32"/>
+        <v>522924</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="32"/>
+        <v>429948</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="32"/>
+        <v>353503</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2478386</v>
+      </c>
+      <c r="C31">
+        <v>2562144</v>
+      </c>
+      <c r="D31">
+        <v>30035</v>
+      </c>
+      <c r="E31">
+        <v>29396</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="1"/>
+        <v>1.17E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="2"/>
+        <v>5040530</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>59431</v>
+      </c>
+      <c r="K31">
+        <f t="shared" ref="K31:U31" si="33">IF(J31&gt;2*$I31,J31,ROUNDDOWN(J31*$H31,0))</f>
+        <v>695</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1938122</v>
+      </c>
+      <c r="C32">
+        <v>1816647</v>
+      </c>
+      <c r="D32">
+        <v>1602356</v>
+      </c>
+      <c r="E32">
+        <v>1875221</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="1"/>
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="2"/>
+        <v>3754769</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>3477577</v>
+      </c>
+      <c r="K32">
+        <f t="shared" ref="K32:U32" si="34">IF(J32&gt;2*$I32,J32,ROUNDDOWN(J32*$H32,0))</f>
+        <v>3220584</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="34"/>
+        <v>2982582</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="34"/>
+        <v>2762169</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="34"/>
+        <v>2558044</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="34"/>
+        <v>2369004</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="34"/>
+        <v>2193934</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="34"/>
+        <v>2031802</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="34"/>
+        <v>1881651</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="34"/>
+        <v>1742596</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="34"/>
+        <v>1613818</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="34"/>
+        <v>1494556</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>992523</v>
+      </c>
+      <c r="C33">
+        <v>1028501</v>
+      </c>
+      <c r="D33">
+        <v>1995446</v>
+      </c>
+      <c r="E33">
+        <v>1860524</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="1"/>
+        <v>1.9078999999999999</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="2"/>
+        <v>2021024</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>3855970</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:U33" si="35">IF(J33&gt;2*$I33,J33,ROUNDDOWN(J33*$H33,0))</f>
+        <v>7356805</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="35"/>
+        <v>7356805</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="35"/>
+        <v>7356805</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="35"/>
+        <v>7356805</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="35"/>
+        <v>7356805</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="35"/>
+        <v>7356805</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="35"/>
+        <v>7356805</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="35"/>
+        <v>7356805</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="35"/>
+        <v>7356805</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="35"/>
+        <v>7356805</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="35"/>
+        <v>7356805</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2966291</v>
+      </c>
+      <c r="C34">
+        <v>2889963</v>
+      </c>
+      <c r="D34">
+        <v>462453</v>
+      </c>
+      <c r="E34">
+        <v>486354</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="1"/>
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="2"/>
+        <v>5856254</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>948807</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:U34" si="36">IF(J34&gt;2*$I34,J34,ROUNDDOWN(J34*$H34,0))</f>
+        <v>153706</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="36"/>
+        <v>24900</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="36"/>
+        <v>4033</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="36"/>
+        <v>653</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="36"/>
+        <v>105</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="36"/>
+        <v>17</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>76648</v>
+      </c>
+      <c r="C35">
+        <v>81385</v>
+      </c>
+      <c r="D35">
+        <v>1374708</v>
+      </c>
+      <c r="E35">
+        <v>1379567</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="1"/>
+        <v>17.4284</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="2"/>
+        <v>158033</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>2754275</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:U35" si="37">IF(J35&gt;2*$I35,J35,ROUNDDOWN(J35*$H35,0))</f>
+        <v>2754275</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="37"/>
+        <v>2754275</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="37"/>
+        <v>2754275</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="37"/>
+        <v>2754275</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="37"/>
+        <v>2754275</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="37"/>
+        <v>2754275</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="37"/>
+        <v>2754275</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="37"/>
+        <v>2754275</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="37"/>
+        <v>2754275</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="37"/>
+        <v>2754275</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="37"/>
+        <v>2754275</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2574432</v>
+      </c>
+      <c r="C36">
+        <v>2409710</v>
+      </c>
+      <c r="D36">
+        <v>987486</v>
+      </c>
+      <c r="E36">
+        <v>999043</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="1"/>
+        <v>0.39850000000000002</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="2"/>
+        <v>4984142</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>1986529</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:U36" si="38">IF(J36&gt;2*$I36,J36,ROUNDDOWN(J36*$H36,0))</f>
+        <v>791631</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="38"/>
+        <v>315464</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="38"/>
+        <v>125712</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="38"/>
+        <v>50096</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="38"/>
+        <v>19963</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="38"/>
+        <v>7955</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="38"/>
+        <v>3170</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="38"/>
+        <v>1263</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="38"/>
+        <v>503</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="38"/>
+        <v>200</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="38"/>
+        <v>79</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1778590</v>
+      </c>
+      <c r="C37">
+        <v>1874844</v>
+      </c>
+      <c r="D37">
+        <v>111191</v>
+      </c>
+      <c r="E37">
+        <v>117846</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="1"/>
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>3653434</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>229037</v>
+      </c>
+      <c r="K37">
+        <f t="shared" ref="K37:U37" si="39">IF(J37&gt;2*$I37,J37,ROUNDDOWN(J37*$H37,0))</f>
+        <v>14337</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="39"/>
+        <v>897</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="39"/>
+        <v>56</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1506541</v>
+      </c>
+      <c r="C38">
+        <v>1414887</v>
+      </c>
+      <c r="D38">
+        <v>1216612</v>
+      </c>
+      <c r="E38">
+        <v>1166775</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="1"/>
+        <v>0.81579999999999997</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>2921428</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>2383387</v>
+      </c>
+      <c r="K38">
+        <f t="shared" ref="K38:U38" si="40">IF(J38&gt;2*$I38,J38,ROUNDDOWN(J38*$H38,0))</f>
+        <v>1944367</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="40"/>
+        <v>1586214</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="40"/>
+        <v>1294033</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="40"/>
+        <v>1055672</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="40"/>
+        <v>861217</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="40"/>
+        <v>702580</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="40"/>
+        <v>573164</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="40"/>
+        <v>467587</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="40"/>
+        <v>381457</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="40"/>
+        <v>311192</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="40"/>
+        <v>253870</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1598886</v>
+      </c>
+      <c r="C39">
+        <v>1687917</v>
+      </c>
+      <c r="D39">
+        <v>449788</v>
+      </c>
+      <c r="E39">
+        <v>427615</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="1"/>
+        <v>0.26690000000000003</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>3286803</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>877403</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:U39" si="41">IF(J39&gt;2*$I39,J39,ROUNDDOWN(J39*$H39,0))</f>
+        <v>234178</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="41"/>
+        <v>62502</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="41"/>
+        <v>16681</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="41"/>
+        <v>4452</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="41"/>
+        <v>1188</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="41"/>
+        <v>317</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="41"/>
+        <v>84</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="41"/>
+        <v>22</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>548989</v>
+      </c>
+      <c r="C40">
+        <v>514636</v>
+      </c>
+      <c r="D40">
+        <v>2770344</v>
+      </c>
+      <c r="E40">
+        <v>3187897</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="1"/>
+        <v>5.6017999999999999</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>1063625</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>5958241</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ref="K40:U40" si="42">IF(J40&gt;2*$I40,J40,ROUNDDOWN(J40*$H40,0))</f>
+        <v>5958241</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="42"/>
+        <v>5958241</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="42"/>
+        <v>5958241</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="42"/>
+        <v>5958241</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="42"/>
+        <v>5958241</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="42"/>
+        <v>5958241</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="42"/>
+        <v>5958241</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="42"/>
+        <v>5958241</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="42"/>
+        <v>5958241</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="42"/>
+        <v>5958241</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="42"/>
+        <v>5958241</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1175198</v>
+      </c>
+      <c r="C41">
+        <v>1095440</v>
+      </c>
+      <c r="D41">
+        <v>2657174</v>
+      </c>
+      <c r="E41">
+        <v>2491947</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="1"/>
+        <v>2.2675999999999998</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>2270638</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>5149121</v>
+      </c>
+      <c r="K41">
+        <f t="shared" ref="K41:U41" si="43">IF(J41&gt;2*$I41,J41,ROUNDDOWN(J41*$H41,0))</f>
+        <v>5149121</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="43"/>
+        <v>5149121</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="43"/>
+        <v>5149121</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="43"/>
+        <v>5149121</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="43"/>
+        <v>5149121</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="43"/>
+        <v>5149121</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="43"/>
+        <v>5149121</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="43"/>
+        <v>5149121</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="43"/>
+        <v>5149121</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="43"/>
+        <v>5149121</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="43"/>
+        <v>5149121</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2115336</v>
+      </c>
+      <c r="C42">
+        <v>2202769</v>
+      </c>
+      <c r="D42">
+        <v>15339</v>
+      </c>
+      <c r="E42">
+        <v>14652</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>4318105</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>29991</v>
+      </c>
+      <c r="K42">
+        <f t="shared" ref="K42:U42" si="44">IF(J42&gt;2*$I42,J42,ROUNDDOWN(J42*$H42,0))</f>
+        <v>206</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2346640</v>
+      </c>
+      <c r="C43">
+        <v>2197559</v>
+      </c>
+      <c r="D43">
+        <v>373470</v>
+      </c>
+      <c r="E43">
+        <v>353365</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="1"/>
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>4544199</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>726835</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43:U43" si="45">IF(J43&gt;2*$I43,J43,ROUNDDOWN(J43*$H43,0))</f>
+        <v>116220</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="45"/>
+        <v>18583</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="45"/>
+        <v>2971</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="45"/>
+        <v>475</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="45"/>
+        <v>75</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="45"/>
+        <v>11</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>2548438</v>
+      </c>
+      <c r="C44">
+        <v>2577213</v>
+      </c>
+      <c r="D44">
+        <v>37986</v>
+      </c>
+      <c r="E44">
+        <v>37766</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="1"/>
+        <v>1.47E-2</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>5125651</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>75752</v>
+      </c>
+      <c r="K44">
+        <f t="shared" ref="K44:U44" si="46">IF(J44&gt;2*$I44,J44,ROUNDDOWN(J44*$H44,0))</f>
+        <v>1113</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="46"/>
+        <v>16</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>835495</v>
+      </c>
+      <c r="C45">
+        <v>837746</v>
+      </c>
+      <c r="D45">
+        <v>1106177</v>
+      </c>
+      <c r="E45">
+        <v>917781</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="1"/>
+        <v>1.2096</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>1673241</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>2023958</v>
+      </c>
+      <c r="K45">
+        <f t="shared" ref="K45:U45" si="47">IF(J45&gt;2*$I45,J45,ROUNDDOWN(J45*$H45,0))</f>
+        <v>2448179</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="47"/>
+        <v>2961317</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="47"/>
+        <v>3582009</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="47"/>
+        <v>3582009</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="47"/>
+        <v>3582009</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="47"/>
+        <v>3582009</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="47"/>
+        <v>3582009</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="47"/>
+        <v>3582009</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="47"/>
+        <v>3582009</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="47"/>
+        <v>3582009</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="47"/>
+        <v>3582009</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1187448</v>
+      </c>
+      <c r="C46">
+        <v>1070426</v>
+      </c>
+      <c r="D46">
+        <v>1504608</v>
+      </c>
+      <c r="E46">
+        <v>1756990</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="1"/>
+        <v>1.4444999999999999</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>2257874</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>3261598</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ref="K46:U46" si="48">IF(J46&gt;2*$I46,J46,ROUNDDOWN(J46*$H46,0))</f>
+        <v>4711378</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="48"/>
+        <v>4711378</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="48"/>
+        <v>4711378</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="48"/>
+        <v>4711378</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="48"/>
+        <v>4711378</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="48"/>
+        <v>4711378</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="48"/>
+        <v>4711378</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="48"/>
+        <v>4711378</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="48"/>
+        <v>4711378</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="48"/>
+        <v>4711378</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="48"/>
+        <v>4711378</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>140026</v>
+      </c>
+      <c r="C47">
+        <v>146354</v>
+      </c>
+      <c r="D47">
+        <v>2759991</v>
+      </c>
+      <c r="E47">
+        <v>2742120</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="1"/>
+        <v>19.212599999999998</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>286380</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>5502111</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="K47:U47" si="49">IF(J47&gt;2*$I47,J47,ROUNDDOWN(J47*$H47,0))</f>
+        <v>5502111</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="49"/>
+        <v>5502111</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="49"/>
+        <v>5502111</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="49"/>
+        <v>5502111</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="49"/>
+        <v>5502111</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="49"/>
+        <v>5502111</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="49"/>
+        <v>5502111</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="49"/>
+        <v>5502111</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="49"/>
+        <v>5502111</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="49"/>
+        <v>5502111</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="49"/>
+        <v>5502111</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1198765</v>
+      </c>
+      <c r="C48">
+        <v>1304945</v>
+      </c>
+      <c r="D48">
+        <v>2786493</v>
+      </c>
+      <c r="E48">
+        <v>2602643</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="1"/>
+        <v>2.1524000000000001</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>2503710</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>5389136</v>
+      </c>
+      <c r="K48">
+        <f t="shared" ref="K48:U48" si="50">IF(J48&gt;2*$I48,J48,ROUNDDOWN(J48*$H48,0))</f>
+        <v>5389136</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="50"/>
+        <v>5389136</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="50"/>
+        <v>5389136</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="50"/>
+        <v>5389136</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="50"/>
+        <v>5389136</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="50"/>
+        <v>5389136</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="50"/>
+        <v>5389136</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="50"/>
+        <v>5389136</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="50"/>
+        <v>5389136</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="50"/>
+        <v>5389136</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="50"/>
+        <v>5389136</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>2619776</v>
+      </c>
+      <c r="C49">
+        <v>2749623</v>
+      </c>
+      <c r="D49">
+        <v>2888215</v>
+      </c>
+      <c r="E49">
+        <v>2800174</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="1"/>
+        <v>1.0593999999999999</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>5369399</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>5688389</v>
+      </c>
+      <c r="K49">
+        <f t="shared" ref="K49:U49" si="51">IF(J49&gt;2*$I49,J49,ROUNDDOWN(J49*$H49,0))</f>
+        <v>6026279</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="51"/>
+        <v>6384239</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="51"/>
+        <v>6763462</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="51"/>
+        <v>7165211</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="51"/>
+        <v>7590824</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="51"/>
+        <v>8041718</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="51"/>
+        <v>8519396</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="51"/>
+        <v>9025448</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="51"/>
+        <v>9561559</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="51"/>
+        <v>10129515</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="51"/>
+        <v>10731208</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>248398</v>
+      </c>
+      <c r="C50">
+        <v>268511</v>
+      </c>
+      <c r="D50">
+        <v>3110853</v>
+      </c>
+      <c r="E50">
+        <v>2986411</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="1"/>
+        <v>11.7956</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>516909</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>6097264</v>
+      </c>
+      <c r="K50">
+        <f t="shared" ref="K50:U50" si="52">IF(J50&gt;2*$I50,J50,ROUNDDOWN(J50*$H50,0))</f>
+        <v>6097264</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="52"/>
+        <v>6097264</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="52"/>
+        <v>6097264</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="52"/>
+        <v>6097264</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="52"/>
+        <v>6097264</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="52"/>
+        <v>6097264</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="52"/>
+        <v>6097264</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="52"/>
+        <v>6097264</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="52"/>
+        <v>6097264</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="52"/>
+        <v>6097264</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="52"/>
+        <v>6097264</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2494207</v>
+      </c>
+      <c r="C51">
+        <v>2625207</v>
+      </c>
+      <c r="D51">
+        <v>1796293</v>
+      </c>
+      <c r="E51">
+        <v>1853602</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="1"/>
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>5119414</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>3649895</v>
+      </c>
+      <c r="K51">
+        <f t="shared" ref="K51:U51" si="53">IF(J51&gt;2*$I51,J51,ROUNDDOWN(J51*$H51,0))</f>
+        <v>2602010</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="53"/>
+        <v>1854972</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="53"/>
+        <v>1322409</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="53"/>
+        <v>942745</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="53"/>
+        <v>672082</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="53"/>
+        <v>479127</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="53"/>
+        <v>341569</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="53"/>
+        <v>243504</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="53"/>
+        <v>173594</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="53"/>
+        <v>123755</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="53"/>
+        <v>88224</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
